--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2001 (PAL01).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2001 (PAL01).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,329 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Creeping Mold</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Destroy target artifact, enchantment, or land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Diabolic Edict</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Target player sacrifices a creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dismiss</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{2}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Counter target spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Empyrial Armor</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +1/+1 for each card in your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Fling</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, sacrifice a creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Fling deals damage equal to the sacrificed creature’s power to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Basic Land — Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>({T}: Add {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Basic Land — Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>({T}: Add {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Gaea's Blessing</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Target player shuffles up to three target cards from their graveyard into their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>When Gaea’s Blessing is put into your graveyard from your library, shuffle your graveyard into your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
+          <t>('Ὁ πλανώμενος Φελδδαγρίφος', ['{1}{G}{W}{U}', 'Θηρίον — Φελδδαγρίφος', '{G}: Ὁ πλανώμενος Φελδδαγρίφος δέχεται +1/+1 μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος παίξω τήν 1/1 γνώμην χλωροῦ θηριοῦ ἱπποποτάμου.', '{W}: Ὁ πλανώμενος Φελδδαγρίφος δέχεται τὴν φυλάχα ἀπὸ μέλανος χαὶ πυρροῦ μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος δέχεται τοῦς 2 βίους.', '{U}: Ὁ πλανώμενος Φελδδαγρίφος χερδαίνει τὴν πτῆσιν μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος ἔαι ἀναλέγειν τὸν βιβλίον.', '4/4'])</t>
         </is>
       </c>
     </row>
